--- a/Zeitplan_ModE_Projekt.xlsx
+++ b/Zeitplan_ModE_Projekt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\OneDrive - Students RWTH Aachen University\Dokumente\RWTH\2.Semester\Neue Kurse\Methods for optimisation\Übungen\Übung 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\OneDrive - Students RWTH Aachen University\Dokumente\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125EDDFD-2370-4332-9204-1556375043C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8257C8C-48F7-43F1-9D53-B82DA7CF3949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
